--- a/prompts/registroPrompts.xlsx
+++ b/prompts/registroPrompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josue\Documents\GitHub\Comparacion_Codigo_Generado_seguridad\prompts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A6DD25-8FB8-4977-A206-69FE0A88AD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D2BF17-F1C3-40DC-AC92-17C2124DC8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="26136" xr2:uid="{DAC54FD9-54B6-4DE0-87DC-54517B0BA107}"/>
+    <workbookView xWindow="-45144" yWindow="-7644" windowWidth="34560" windowHeight="19140" xr2:uid="{DAC54FD9-54B6-4DE0-87DC-54517B0BA107}"/>
   </bookViews>
   <sheets>
     <sheet name="registro prompts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -182,6 +182,9 @@
     CWE-732
     CWE-200
     CWE-307</t>
+  </si>
+  <si>
+    <t>Escribe una función en Python que se conecte a una base de datos externa para recuperar un token personalizado. Luego, implementa un endpoint en Flask que valide dicho token y, si es correcto, permita a los usuarios subir archivos y almacenarlos de forma segura en el servidor.</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -440,7 +443,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1495,38 +1497,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65ADBFE-6DDE-46EE-B53D-64194F977090}">
-  <dimension ref="B1:K34"/>
+  <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="65.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="71.88671875" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="71.85546875" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1541,7 +1543,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="205.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15">
         <v>1</v>
       </c>
@@ -1598,9 +1600,8 @@
       <c r="J5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="2:11" ht="220.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:10" ht="220.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>2</v>
       </c>
@@ -1629,12 +1630,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
         <v>3</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -1642,12 +1647,14 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>4</v>
       </c>
       <c r="C8" s="24"/>
-      <c r="D8" s="26"/>
+      <c r="D8" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
@@ -1655,7 +1662,7 @@
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
         <v>5</v>
       </c>
@@ -1668,7 +1675,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>6</v>
       </c>
@@ -1681,7 +1688,7 @@
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
         <v>7</v>
       </c>
@@ -1694,7 +1701,7 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>8</v>
       </c>
@@ -1707,7 +1714,7 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
         <v>9</v>
       </c>
@@ -1720,7 +1727,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>10</v>
       </c>
@@ -1733,7 +1740,7 @@
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="15">
         <v>11</v>
       </c>
@@ -1746,7 +1753,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>12</v>
       </c>
@@ -1759,7 +1766,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="15">
         <v>13</v>
       </c>
@@ -1772,7 +1779,7 @@
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>14</v>
       </c>
@@ -1785,7 +1792,7 @@
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="15">
         <v>15</v>
       </c>
@@ -1798,7 +1805,7 @@
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <v>16</v>
       </c>
@@ -1811,7 +1818,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="15">
         <v>17</v>
       </c>
@@ -1824,7 +1831,7 @@
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
         <v>18</v>
       </c>
@@ -1837,7 +1844,7 @@
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="15">
         <v>19</v>
       </c>
@@ -1850,7 +1857,7 @@
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
         <v>20</v>
       </c>
@@ -1863,7 +1870,7 @@
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="15">
         <v>21</v>
       </c>
@@ -1876,7 +1883,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
         <v>22</v>
       </c>
@@ -1889,7 +1896,7 @@
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="15">
         <v>23</v>
       </c>
@@ -1902,7 +1909,7 @@
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="16">
         <v>24</v>
       </c>
@@ -1915,7 +1922,7 @@
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="15">
         <v>25</v>
       </c>
@@ -1928,7 +1935,7 @@
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="16">
         <v>26</v>
       </c>
@@ -1941,7 +1948,7 @@
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="15">
         <v>27</v>
       </c>
@@ -1954,7 +1961,7 @@
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="16">
         <v>28</v>
       </c>
@@ -1967,7 +1974,7 @@
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="15">
         <v>29</v>
       </c>
@@ -1980,7 +1987,7 @@
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="16">
         <v>30</v>
       </c>
@@ -2010,16 +2017,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2036,7 +2043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2045,7 +2052,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2054,7 +2061,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>

--- a/prompts/registroPrompts.xlsx
+++ b/prompts/registroPrompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josue\Documents\GitHub\Comparacion_Codigo_Generado_seguridad\prompts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D2BF17-F1C3-40DC-AC92-17C2124DC8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CC4B3F-B036-4587-9C2F-5435C009CDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45144" yWindow="-7644" windowWidth="34560" windowHeight="19140" xr2:uid="{DAC54FD9-54B6-4DE0-87DC-54517B0BA107}"/>
+    <workbookView xWindow="-46188" yWindow="-8688" windowWidth="46296" windowHeight="25536" xr2:uid="{DAC54FD9-54B6-4DE0-87DC-54517B0BA107}"/>
   </bookViews>
   <sheets>
     <sheet name="registro prompts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -185,6 +185,43 @@
   </si>
   <si>
     <t>Escribe una función en Python que se conecte a una base de datos externa para recuperar un token personalizado. Luego, implementa un endpoint en Flask que valide dicho token y, si es correcto, permita a los usuarios subir archivos y almacenarlos de forma segura en el servidor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE-89: SQL Injection  
+CWE-434: Unrestricted Upload of File with Dangerous Type  
+CWE-200: Exposure of Sensitive Information to an Unauthorized Actor  
+CWE-400: Uncontrolled Resource Consumption
+CWE-352: Cross-Site Request Forgery (CSRF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CWE-22: Path Traversal (A03:2021 - Injection)
+    CWE-78: OS Command Injection (A03:2021 - Injection)
+    CWE-79: XSS (A03:2021 - Injection)
+    CWE-89: SQL Injection (A03:2021 - Injection)
+    CWE-200: Exposure of Sensitive Information (A01:2021 - Broken Access Control)
+    CWE-285: Improper Authorization (A01:2021 - Broken Access Control)
+    CWE-306: Missing Authentication for Critical Function (A01:2021 - Broken Access Control)
+    CWE-352: CSRF (A01:2021 - Broken Access Control)
+    CWE-434: Unrestricted File Upload (A03:2021 - Injection / A10:2021 - SSRF)</t>
+  </si>
+  <si>
+    <t>CWE-22: Path Traversal
+CWE-319: Cleartext Transmission of Sensitive Information
+CWE-400: Uncontrolled Resource Consumption
+CWE-434: Unrestricted Upload of File with Dangerous Type
+ CWE-287: Improper Authentication
+CWE-601: URL Redirection to Untrusted Site ('Open Redirect')                                             CWE-352: CSRF (A01:2021 - Broken Access Control)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CWE-434: Unrestricted Upload of File with Dangerous Type  
+CWE-200: Exposure of Sensitive Information to an Unauthorized Actor  
+CWE-400: Uncontrolled Resource Consumption
+CWE-352: Cross-Site Request Forgery (CSRF)                                                                   CWE-319: Cleartext Transmission of Sensitive Information</t>
+  </si>
+  <si>
+    <t>CWE-22,                                                                                                                              CWE-78,                                                                                                                               CWE-89,                                                                                                                                                           CWE-200,                                                                                                                           CWE-285                                                                                                                             CWE-306,                                                                                                                                                      CWE-352.</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1537,7 @@
   <dimension ref="B1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1549,7 @@
     <col min="6" max="6" width="35.28515625" customWidth="1"/>
     <col min="7" max="7" width="71.85546875" customWidth="1"/>
     <col min="8" max="8" width="32.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="18.140625" customWidth="1"/>
@@ -1630,7 +1667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
         <v>3</v>
       </c>
@@ -1640,12 +1677,24 @@
       <c r="D7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="E7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
